--- a/archival/data/archival/Series/relations/SeriesR5Series.xlsx
+++ b/archival/data/archival/Series/relations/SeriesR5Series.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="237">
   <si>
     <t>From</t>
   </si>
@@ -60,18 +60,9 @@
     <t>ACTAS DE APERTURA Y CIERRE DE AUDITORÍA INTERNA</t>
   </si>
   <si>
-    <t>ACTAS DE COMISIÓN DE EVALUACIÓN Y PROMOCIÓN</t>
-  </si>
-  <si>
     <t>ACTAS DE COMITÉ DE CONVIVENCIA LABORAL</t>
   </si>
   <si>
-    <t>ACTAS DE COMPROMISO ACADÉMICO</t>
-  </si>
-  <si>
-    <t>ACTAS DE COMPROMISO COMPORTAMENTAL</t>
-  </si>
-  <si>
     <t>ACTAS DE CONSEJO ACADÉMICO</t>
   </si>
   <si>
@@ -81,30 +72,12 @@
     <t>ACTAS DE DESCARGOS, CONCILIACIÓN O COMPROMISO</t>
   </si>
   <si>
-    <t>ACTAS DE REUNIÓN DE COPASST</t>
-  </si>
-  <si>
-    <t>ACTAS DE REUNIÓN DE DEPARTAMENTO O ÁREA</t>
-  </si>
-  <si>
-    <t>ACTAS DE REUNIONES DEL COMITÉ DE LA CALIDAD</t>
-  </si>
-  <si>
-    <t>ACTAS DEL CONSEJO DE COORDINACIÓN</t>
-  </si>
-  <si>
     <t>CIRCULARES</t>
   </si>
   <si>
-    <t>AM-CIRCULAR</t>
-  </si>
-  <si>
     <t>CORRESPONDENCIA</t>
   </si>
   <si>
-    <t>AM-CORRESPONDENCIA</t>
-  </si>
-  <si>
     <t>AUTORIZACIONES</t>
   </si>
   <si>
@@ -117,9 +90,6 @@
     <t>REGISTROS</t>
   </si>
   <si>
-    <t>AUTOS REGISTRO DE RETARDOS</t>
-  </si>
-  <si>
     <t>CARTAS</t>
   </si>
   <si>
@@ -129,9 +99,6 @@
     <t>CARTERAS</t>
   </si>
   <si>
-    <t>CARTERAS ACTUALIZADAS DE LOS COLEGIOS</t>
-  </si>
-  <si>
     <t>CITACIONES</t>
   </si>
   <si>
@@ -165,15 +132,9 @@
     <t>CONCILIACIONES</t>
   </si>
   <si>
-    <t>CONCILIACIONES  CUENTA DE MOROSOS</t>
-  </si>
-  <si>
     <t>CONTENIDOS</t>
   </si>
   <si>
-    <t>CONTENIDOS PROGRAMÁTICOS</t>
-  </si>
-  <si>
     <t>CONTRATOS</t>
   </si>
   <si>
@@ -276,21 +237,12 @@
     <t>EVALUACIONES</t>
   </si>
   <si>
-    <t>EVALUACIONES DE ACTIVIDADES DE APOYO</t>
-  </si>
-  <si>
     <t>EVALUACIONES DE DESEMPEÑO</t>
   </si>
   <si>
-    <t>EVALUACIONES DE DOCENTES (PREESCOLAR Y PRIMERO)</t>
-  </si>
-  <si>
     <t>EVALUACIONES DE GESTIÓN DE LA AUDITORÍA</t>
   </si>
   <si>
-    <t>EVALUACIONES DE LA ATENCIÓN A PADRES DE FAMILIA O ACUDIENTES</t>
-  </si>
-  <si>
     <t>EVALUACIONES DEL SERVICIO DE ASEO Y MANTENIMIENTO</t>
   </si>
   <si>
@@ -315,51 +267,6 @@
     <t>FORMULARIOS DE INSCRIPCIÓN</t>
   </si>
   <si>
-    <t>GC-CIRCULAR</t>
-  </si>
-  <si>
-    <t>GC-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GD-CIRCULAR DE RECTORÍA</t>
-  </si>
-  <si>
-    <t>GD-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GE-CIRCULAR</t>
-  </si>
-  <si>
-    <t>GE-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GF-CIRCULAR</t>
-  </si>
-  <si>
-    <t>GF-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GI-CIRCULAR</t>
-  </si>
-  <si>
-    <t>GI-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GQ-CIRCULAR</t>
-  </si>
-  <si>
-    <t>GQ-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GT-CIRCULAR</t>
-  </si>
-  <si>
-    <t>GT-CORRESPONDENCIA</t>
-  </si>
-  <si>
-    <t>GUIAS</t>
-  </si>
-  <si>
     <t>GUÍAS DE AUTOEVALUACIÓN</t>
   </si>
   <si>
@@ -369,18 +276,12 @@
     <t>HISTORIAS</t>
   </si>
   <si>
-    <t>HISTORIAS Y SEGUIMIENTO PSICOLOGÍA</t>
-  </si>
-  <si>
     <t>HOJAS</t>
   </si>
   <si>
     <t>HOJAS DE MATRÍCULA</t>
   </si>
   <si>
-    <t>HOJAS DE VIDA</t>
-  </si>
-  <si>
     <t>HOJAS DE VIDA DE EQUIPOS</t>
   </si>
   <si>
@@ -405,27 +306,12 @@
     <t>INFORMES DE AUDITORÍA INTERNA</t>
   </si>
   <si>
-    <t>INFORMES DE COMISIONES DE EVALUACIÓN Y PROMOCIÓN</t>
-  </si>
-  <si>
-    <t>INFORMES DE GESTIÓN O DESEMEPEÑO DE PROCESO</t>
-  </si>
-  <si>
     <t>INFORMES DE RESULTADO DE REVISIÓN POR LA DIRECCIÓN</t>
   </si>
   <si>
     <t>INFORMES DE RESULTADOS DE ENCUESTAS DE SATISFACCIÓN</t>
   </si>
   <si>
-    <t>INFORMES MENSUALES DE VENTAS EN CAFETERIA</t>
-  </si>
-  <si>
-    <t>INFORMES O RESULTADOS DE PRUEBAS EXTERNAS</t>
-  </si>
-  <si>
-    <t>INFORMES PERIODICOS DE PSICOLOGÍA A COORDINACIÓN</t>
-  </si>
-  <si>
     <t>INFORMES VISITA HERMANO PROVINCIAL</t>
   </si>
   <si>
@@ -441,9 +327,6 @@
     <t>INSCRIPCIONES DE PROVEEDORES</t>
   </si>
   <si>
-    <t>KARDEX</t>
-  </si>
-  <si>
     <t>KÁRDEX DE ALMACÉN</t>
   </si>
   <si>
@@ -453,9 +336,6 @@
     <t>LIBROS DE ACTAS DE GRADO</t>
   </si>
   <si>
-    <t>LIBROS DE CALIFICACIONES FINALES</t>
-  </si>
-  <si>
     <t>LIQUIDACIONES</t>
   </si>
   <si>
@@ -474,9 +354,6 @@
     <t>LISTADOS DE ESTUDIANTES MATRICULADOS</t>
   </si>
   <si>
-    <t>LISTADOS DE INVENTARIOS DE ACTIVOS Y RELACIÓN DE NOVEDADES</t>
-  </si>
-  <si>
     <t>LISTADOS DE PROVEEDORES</t>
   </si>
   <si>
@@ -486,9 +363,6 @@
     <t>LISTADOS MAESTRO DE REGISTROS</t>
   </si>
   <si>
-    <t>LISTAS</t>
-  </si>
-  <si>
     <t>LISTAS DE CHEQUEO</t>
   </si>
   <si>
@@ -525,12 +399,6 @@
     <t>ORDENES DE COMPRA</t>
   </si>
   <si>
-    <t>PAZ Y SALVOS</t>
-  </si>
-  <si>
-    <t>PAZ Y SALVO ESTUDIANTES</t>
-  </si>
-  <si>
     <t>PAZ Y SALVOS GENERALES</t>
   </si>
   <si>
@@ -549,9 +417,6 @@
     <t>PLANES DE BIENESTAR</t>
   </si>
   <si>
-    <t>PLANES DE CONTROL DE PLAGAS</t>
-  </si>
-  <si>
     <t>PLANES DE CURSO</t>
   </si>
   <si>
@@ -561,30 +426,12 @@
     <t>PLANES DE FORMACIÓN</t>
   </si>
   <si>
-    <t>PLANES DE MANTENIMIENTOS</t>
-  </si>
-  <si>
-    <t>PLANES DE MEJORAMIENTO ENCUESTA DE CLIMA ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>PLANES OPERATIVOS ANUALES</t>
-  </si>
-  <si>
     <t>PLANILLAS</t>
   </si>
   <si>
     <t>PLANILLAS DE ACTIVIDADES DE MANTENIMIENTO</t>
   </si>
   <si>
-    <t>PLANILLAS DE CALIFICACIONES / CONTROL DE ASISTENCIA</t>
-  </si>
-  <si>
-    <t>PLANILLAS DE SEGUIMIENTO- NIVEL PREESCOLAR</t>
-  </si>
-  <si>
-    <t>PLANILLAS DIARIAS DE VENTAS EN CAFETERIA</t>
-  </si>
-  <si>
     <t>PROTOCOLIZACIONES</t>
   </si>
   <si>
@@ -606,21 +453,12 @@
     <t>RADICACIONES</t>
   </si>
   <si>
-    <t>RADICACIONES DE CORRESPONDENCIA ENVIADA</t>
-  </si>
-  <si>
-    <t>RADICACIONES Y DISTRIBUCIÓN DE CORRESPONDENCIA RECIBIDA</t>
-  </si>
-  <si>
     <t>REEVALUACIONES</t>
   </si>
   <si>
     <t>REEVALUACIONES DE PROVEEDORES</t>
   </si>
   <si>
-    <t>REGISTROS DE ATENCIÓN A PADRES DE FAMILIA O ACUDIENTES</t>
-  </si>
-  <si>
     <t>REGISTROS DE INDUCCIÓN</t>
   </si>
   <si>
@@ -633,9 +471,6 @@
     <t>REGISTROS DE RESULTADOS DE ADMISIÓN</t>
   </si>
   <si>
-    <t>REGISTROS DE SOPORTES DE INSCRIPCIÓN Y EVALUACIÓN DE PROVEEDORES</t>
-  </si>
-  <si>
     <t>REGISTROS DE VALIDACIÓN DE LA PRESTACIÓN DEL SERVICIO EDUCATIVO</t>
   </si>
   <si>
@@ -654,21 +489,12 @@
     <t>REPORTES</t>
   </si>
   <si>
-    <t>REPORTES DE INCIDENCIAS Y DAÑOS EN AULAS Y ZONAS COMUNAS</t>
-  </si>
-  <si>
     <t>REQUISICIONES</t>
   </si>
   <si>
-    <t>REQUISICIONES GF</t>
-  </si>
-  <si>
     <t>RESOLUCIONES</t>
   </si>
   <si>
-    <t>RESOLUCIÓNES DE RECTORÍA</t>
-  </si>
-  <si>
     <t>RESUMENES</t>
   </si>
   <si>
@@ -681,27 +507,12 @@
     <t>RETIROS DE PERSONAL</t>
   </si>
   <si>
-    <t>SC-CIRCULAR</t>
-  </si>
-  <si>
-    <t>SC-CORRESPONDENCIA</t>
-  </si>
-  <si>
     <t>SEGUIMIENTOS</t>
   </si>
   <si>
     <t>SEGUIMIENTOS Y ASISTENCIA A CAPACITACIÓN</t>
   </si>
   <si>
-    <t>SEGUIMIENTOS Y CONTROLES DE QUEJAS, SUGERENCIAS Y FELICITACIONES</t>
-  </si>
-  <si>
-    <t>SG-CIRCULAR</t>
-  </si>
-  <si>
-    <t>SG-CORRESPONDENCIA</t>
-  </si>
-  <si>
     <t>SOLICITUDES</t>
   </si>
   <si>
@@ -711,18 +522,12 @@
     <t>SOLICITUDES DE COMPRAS</t>
   </si>
   <si>
-    <t>SOLICITUDES DE MANTENIMIENTOS CORRECTIVOS</t>
-  </si>
-  <si>
     <t>SOLICITUDES DE PERMISOS</t>
   </si>
   <si>
     <t>SOLICITUDES DE PERSONAL</t>
   </si>
   <si>
-    <t>SOLICITUDES DE SERVICIOS DE FOTOCOPIADO E IMPRESIÓN</t>
-  </si>
-  <si>
     <t>SOLICITUDES Y ENTREGAS DE SUMINISTROS</t>
   </si>
   <si>
@@ -730,13 +535,208 @@
   </si>
   <si>
     <t>SOPORTES COMPROBANTES DE EGRESO</t>
+  </si>
+  <si>
+    <t>ACTAS - COMITÉ DE COORDINACIÓN</t>
+  </si>
+  <si>
+    <t>ACTAS DE COMISIONES DE EVALUACIÓN Y PROMOCIÓN</t>
+  </si>
+  <si>
+    <t>ACTAS DE REUNIÓN DEL COMITÉ DE LA CALIDAD</t>
+  </si>
+  <si>
+    <t>ACTAS DE REUNIONES DE COPASST</t>
+  </si>
+  <si>
+    <t>ACTAS REUNIÓN DE DEPARTAMENTO O ÁREA</t>
+  </si>
+  <si>
+    <t>AM - CIRCULARES</t>
+  </si>
+  <si>
+    <t>AM - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>AUTO REGISTROS DE RETARDOS</t>
+  </si>
+  <si>
+    <t>CARTERAS ACTUALIZADAS DE COLEGIOS</t>
+  </si>
+  <si>
+    <t>CIRCULARES DE RECTORÍA</t>
+  </si>
+  <si>
+    <t>COMPROMISOS ACADÉMICO</t>
+  </si>
+  <si>
+    <t>COMPROMISOS COMPORTAMENTAL</t>
+  </si>
+  <si>
+    <t>CONCILIACIONES CUENTAS DE MOROSOS</t>
+  </si>
+  <si>
+    <t>CONTENIDOS PROGRAMATICOS</t>
+  </si>
+  <si>
+    <t>CONTRATOS INDIVIDUALS DE TRABAJO PARA PERSONAL DOCENTE AÑO ESCOLAR</t>
+  </si>
+  <si>
+    <t>EVALUACIONES DE ACTIVIDADES D APOYO</t>
+  </si>
+  <si>
+    <t>EVALUACIONES DE DOCENTES</t>
+  </si>
+  <si>
+    <t>GC - CIRCULARES</t>
+  </si>
+  <si>
+    <t>GC - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>GC - REQUISICIONES</t>
+  </si>
+  <si>
+    <t>GD - CIRCULARES EXTERNAS</t>
+  </si>
+  <si>
+    <t>GD - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>GE - CIRCULARES</t>
+  </si>
+  <si>
+    <t>GE - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>GF - CIRCULARES</t>
+  </si>
+  <si>
+    <t>GF - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>GF - REQUISICIÓNES</t>
+  </si>
+  <si>
+    <t>GI - CIRCULARES</t>
+  </si>
+  <si>
+    <t>GI - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>GQ - CIRCULARES</t>
+  </si>
+  <si>
+    <t>GQ - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>GT - CIRCULARES</t>
+  </si>
+  <si>
+    <t>GT - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>HISTORIAS Y SEGUIMIENTOS PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>INFORMES DE  GESTIÓN O DESEMPEÑO DEL PROCESO</t>
+  </si>
+  <si>
+    <t>INFORMES PERIÓDICOS DE PSICOLOGÍA A COORDINACIÓN</t>
+  </si>
+  <si>
+    <t>LIBROS DE CALIFICACIONES FINAL</t>
+  </si>
+  <si>
+    <t>LISTADOS DE INVENTARIO DE ACTIVOS Y RELACIÓN DE NOVEDADES</t>
+  </si>
+  <si>
+    <t>PAZ Y SALVOS ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>PLANES CONTROL DE PLAGAS</t>
+  </si>
+  <si>
+    <t>PLANES DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>PLANES DE MEJORAMIENTO ENCUESTA DE CLIMA ORGANIZACIONAL.</t>
+  </si>
+  <si>
+    <t>PLANES OPERATIVO ANUAL</t>
+  </si>
+  <si>
+    <t>PLANILLAS DIARIAS DE VENTAS EN CAFETERÍA</t>
+  </si>
+  <si>
+    <t>PROGRAMAS DE AUDITORIA</t>
+  </si>
+  <si>
+    <t>PROYECTOS DE AULA PRE-ESCOLAR</t>
+  </si>
+  <si>
+    <t>RADICACIONES DE CORRESPONDENCIA ENVIADA ENVIADA</t>
+  </si>
+  <si>
+    <t>RADICACIONES Y DISTRIBUCIÓN DE CORRESPONDENCIA ENVIADA RECIBIDA</t>
+  </si>
+  <si>
+    <t>REGISTROS SOPORTES DE INSCRIPCIÓN Y EVALUACIÓN DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>REPORTES DE  DAÑOS</t>
+  </si>
+  <si>
+    <t>RESOLUCIONES DE RECTORÍA</t>
+  </si>
+  <si>
+    <t>SC - CIRCULARES</t>
+  </si>
+  <si>
+    <t>SC - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTOS Y CONTROL DE QUEJAS, SUGERENCIAS Y FELICITACIONES</t>
+  </si>
+  <si>
+    <t>SG - CIRCULARES</t>
+  </si>
+  <si>
+    <t>SG - CORRESPONDENCIA ENVIADA</t>
+  </si>
+  <si>
+    <t>SOLICITUDES DE MANTENIMIENTO CORRECTIVO</t>
+  </si>
+  <si>
+    <t>SOLICITUDES DEL SERVICIO DE FOTOCOPIADO E IMPRESIÓN</t>
+  </si>
+  <si>
+    <t>AUTO REGISTROS</t>
+  </si>
+  <si>
+    <t>COMPROMISOS</t>
+  </si>
+  <si>
+    <t>ELABORACION</t>
+  </si>
+  <si>
+    <t>GUÍAS</t>
+  </si>
+  <si>
+    <t>KÁRDEX</t>
+  </si>
+  <si>
+    <t>PAZ Y SALVO</t>
+  </si>
+  <si>
+    <t>PROGRAMAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,6 +870,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1213,8 +1226,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1536,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1596,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -1591,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1604,7 +1619,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -1614,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1627,7 +1642,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
@@ -1637,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1650,7 +1665,7 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -1660,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1673,7 +1688,7 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -1683,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -1696,7 +1711,7 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
@@ -1706,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -1719,7 +1734,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
@@ -1729,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -1742,7 +1757,7 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
@@ -1752,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -1765,7 +1780,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
@@ -1775,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -1788,7 +1803,7 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
@@ -1798,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -1811,8 +1826,8 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1821,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1834,8 +1849,8 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1844,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1857,8 +1872,8 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
+      <c r="C14" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1867,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -1880,8 +1895,8 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1890,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -1903,8 +1918,8 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1913,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1926,8 +1941,8 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1936,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1949,8 +1964,8 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1959,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1972,8 +1987,8 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1982,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1995,8 +2010,8 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>35</v>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -2005,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -2018,8 +2033,8 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2028,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -2041,8 +2056,8 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
-        <v>39</v>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -2051,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -2064,8 +2079,8 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>41</v>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -2074,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -2087,8 +2102,8 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>43</v>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2097,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -2110,8 +2125,8 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>45</v>
+      <c r="C25" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -2120,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -2133,8 +2148,8 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>47</v>
+      <c r="C26" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -2143,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -2156,8 +2171,8 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -2166,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -2179,8 +2194,8 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>51</v>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2189,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -2202,8 +2217,8 @@
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -2212,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -2225,8 +2240,8 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2235,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -2248,8 +2263,8 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -2258,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -2271,8 +2286,8 @@
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
-        <v>54</v>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -2281,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -2294,8 +2309,8 @@
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
-        <v>54</v>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2304,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -2317,8 +2332,8 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2327,7 +2342,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -2340,8 +2355,8 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
-        <v>54</v>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2350,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -2363,8 +2378,8 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
-        <v>54</v>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2373,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -2386,8 +2401,8 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>62</v>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2396,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -2409,8 +2424,8 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>64</v>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2419,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
@@ -2432,8 +2447,8 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>64</v>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2442,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -2455,8 +2470,8 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>67</v>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2465,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
@@ -2478,8 +2493,8 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>69</v>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2488,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
@@ -2502,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -2511,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -2524,8 +2539,8 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>71</v>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2534,7 +2549,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
@@ -2547,8 +2562,8 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
-        <v>74</v>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2557,7 +2572,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
@@ -2570,8 +2585,8 @@
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
-        <v>76</v>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2580,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -2593,8 +2608,8 @@
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="s">
-        <v>74</v>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2603,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -2616,8 +2631,8 @@
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
-        <v>79</v>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -2626,7 +2641,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
@@ -2639,8 +2654,8 @@
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
+      <c r="C48" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2649,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -2662,8 +2677,8 @@
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" t="s">
-        <v>82</v>
+      <c r="C49" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2672,7 +2687,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -2685,8 +2700,8 @@
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="s">
-        <v>84</v>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -2695,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -2708,8 +2723,8 @@
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="s">
-        <v>84</v>
+      <c r="C51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2718,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -2731,8 +2746,8 @@
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52" t="s">
-        <v>84</v>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2741,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -2754,8 +2769,8 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" t="s">
-        <v>84</v>
+      <c r="C53" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -2764,7 +2779,7 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -2777,8 +2792,8 @@
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54" t="s">
-        <v>84</v>
+      <c r="C54" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2787,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -2800,8 +2815,8 @@
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="s">
-        <v>84</v>
+      <c r="C55" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2810,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -2823,8 +2838,8 @@
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="s">
-        <v>84</v>
+      <c r="C56" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2833,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2846,8 +2861,8 @@
       <c r="B57" t="s">
         <v>10</v>
       </c>
-      <c r="C57" t="s">
-        <v>84</v>
+      <c r="C57" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2856,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
@@ -2869,8 +2884,8 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58" t="s">
-        <v>84</v>
+      <c r="C58" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2879,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2892,8 +2907,8 @@
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
-        <v>94</v>
+      <c r="C59" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -2902,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
@@ -2915,8 +2930,8 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
-        <v>96</v>
+      <c r="C60" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -2925,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -2939,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2948,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2961,8 +2976,8 @@
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" t="s">
-        <v>26</v>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2971,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -2984,8 +2999,8 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="s">
-        <v>24</v>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -2994,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -3007,8 +3022,8 @@
       <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s">
-        <v>26</v>
+      <c r="C64" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -3017,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -3030,8 +3045,8 @@
       <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
-        <v>24</v>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -3040,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
@@ -3053,8 +3068,8 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66" t="s">
-        <v>26</v>
+      <c r="C66" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -3063,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
@@ -3076,8 +3091,8 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" t="s">
-        <v>24</v>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -3086,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -3099,8 +3114,8 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
-        <v>26</v>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -3109,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
@@ -3122,8 +3137,8 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" t="s">
-        <v>24</v>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -3132,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="H69" t="s">
         <v>9</v>
@@ -3145,8 +3160,8 @@
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70" t="s">
-        <v>26</v>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -3155,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="H70" t="s">
         <v>9</v>
@@ -3168,8 +3183,8 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="s">
-        <v>24</v>
+      <c r="C71" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3178,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
@@ -3191,8 +3206,8 @@
       <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
-        <v>26</v>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -3201,7 +3216,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -3214,8 +3229,8 @@
       <c r="B73" t="s">
         <v>10</v>
       </c>
-      <c r="C73" t="s">
-        <v>24</v>
+      <c r="C73" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3224,7 +3239,7 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
@@ -3237,8 +3252,8 @@
       <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="C74" t="s">
-        <v>26</v>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3247,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="H74" t="s">
         <v>9</v>
@@ -3260,8 +3275,8 @@
       <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" t="s">
-        <v>112</v>
+      <c r="C75" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -3270,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="H75" t="s">
         <v>9</v>
@@ -3283,8 +3298,8 @@
       <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="C76" t="s">
-        <v>112</v>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3293,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
@@ -3306,8 +3321,8 @@
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" t="s">
-        <v>115</v>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3316,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="H77" t="s">
         <v>9</v>
@@ -3329,8 +3344,8 @@
       <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C78" t="s">
-        <v>117</v>
+      <c r="C78" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3339,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
@@ -3353,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3362,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
@@ -3375,8 +3390,8 @@
       <c r="B80" t="s">
         <v>10</v>
       </c>
-      <c r="C80" t="s">
-        <v>119</v>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3385,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
@@ -3398,8 +3413,8 @@
       <c r="B81" t="s">
         <v>10</v>
       </c>
-      <c r="C81" t="s">
-        <v>122</v>
+      <c r="C81" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3408,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
@@ -3421,8 +3436,8 @@
       <c r="B82" t="s">
         <v>10</v>
       </c>
-      <c r="C82" t="s">
-        <v>124</v>
+      <c r="C82" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -3431,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -3444,8 +3459,8 @@
       <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="C83" t="s">
-        <v>126</v>
+      <c r="C83" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3454,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
@@ -3467,8 +3482,8 @@
       <c r="B84" t="s">
         <v>10</v>
       </c>
-      <c r="C84" t="s">
-        <v>126</v>
+      <c r="C84" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -3477,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
@@ -3490,8 +3505,8 @@
       <c r="B85" t="s">
         <v>10</v>
       </c>
-      <c r="C85" t="s">
-        <v>126</v>
+      <c r="C85" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -3500,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -3513,8 +3528,8 @@
       <c r="B86" t="s">
         <v>10</v>
       </c>
-      <c r="C86" t="s">
-        <v>126</v>
+      <c r="C86" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -3523,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="H86" t="s">
         <v>9</v>
@@ -3536,8 +3551,8 @@
       <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="C87" t="s">
-        <v>126</v>
+      <c r="C87" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -3546,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
@@ -3559,8 +3574,8 @@
       <c r="B88" t="s">
         <v>10</v>
       </c>
-      <c r="C88" t="s">
-        <v>126</v>
+      <c r="C88" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -3569,7 +3584,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
@@ -3582,8 +3597,8 @@
       <c r="B89" t="s">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
-        <v>126</v>
+      <c r="C89" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3591,8 +3606,8 @@
       <c r="E89" t="s">
         <v>10</v>
       </c>
-      <c r="F89" t="s">
-        <v>133</v>
+      <c r="F89" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
@@ -3605,8 +3620,8 @@
       <c r="B90" t="s">
         <v>10</v>
       </c>
-      <c r="C90" t="s">
-        <v>126</v>
+      <c r="C90" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -3615,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="H90" t="s">
         <v>9</v>
@@ -3628,8 +3643,8 @@
       <c r="B91" t="s">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
-        <v>126</v>
+      <c r="C91" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -3638,7 +3653,7 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
@@ -3651,8 +3666,8 @@
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92" t="s">
-        <v>136</v>
+      <c r="C92" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3661,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="H92" t="s">
         <v>9</v>
@@ -3674,8 +3689,8 @@
       <c r="B93" t="s">
         <v>10</v>
       </c>
-      <c r="C93" t="s">
-        <v>138</v>
+      <c r="C93" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -3684,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
@@ -3697,8 +3712,8 @@
       <c r="B94" t="s">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
-        <v>140</v>
+      <c r="C94" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -3707,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="H94" t="s">
         <v>9</v>
@@ -3720,8 +3735,8 @@
       <c r="B95" t="s">
         <v>10</v>
       </c>
-      <c r="C95" t="s">
-        <v>142</v>
+      <c r="C95" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3730,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
@@ -3743,8 +3758,8 @@
       <c r="B96" t="s">
         <v>10</v>
       </c>
-      <c r="C96" t="s">
-        <v>142</v>
+      <c r="C96" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3753,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="H96" t="s">
         <v>9</v>
@@ -3766,8 +3781,8 @@
       <c r="B97" t="s">
         <v>10</v>
       </c>
-      <c r="C97" t="s">
-        <v>145</v>
+      <c r="C97" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -3776,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
@@ -3789,8 +3804,8 @@
       <c r="B98" t="s">
         <v>10</v>
       </c>
-      <c r="C98" t="s">
-        <v>147</v>
+      <c r="C98" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -3799,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="H98" t="s">
         <v>9</v>
@@ -3812,8 +3827,8 @@
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" t="s">
-        <v>147</v>
+      <c r="C99" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3822,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="H99" t="s">
         <v>9</v>
@@ -3835,8 +3850,8 @@
       <c r="B100" t="s">
         <v>10</v>
       </c>
-      <c r="C100" t="s">
-        <v>147</v>
+      <c r="C100" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -3845,7 +3860,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H100" t="s">
         <v>9</v>
@@ -3858,8 +3873,8 @@
       <c r="B101" t="s">
         <v>10</v>
       </c>
-      <c r="C101" t="s">
-        <v>147</v>
+      <c r="C101" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -3868,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="H101" t="s">
         <v>9</v>
@@ -3881,8 +3896,8 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" t="s">
-        <v>147</v>
+      <c r="C102" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3891,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="H102" t="s">
         <v>9</v>
@@ -3904,8 +3919,8 @@
       <c r="B103" t="s">
         <v>10</v>
       </c>
-      <c r="C103" t="s">
-        <v>147</v>
+      <c r="C103" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3914,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="H103" t="s">
         <v>9</v>
@@ -3927,8 +3942,8 @@
       <c r="B104" t="s">
         <v>10</v>
       </c>
-      <c r="C104" t="s">
-        <v>147</v>
+      <c r="C104" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -3937,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="H104" t="s">
         <v>9</v>
@@ -3950,8 +3965,8 @@
       <c r="B105" t="s">
         <v>10</v>
       </c>
-      <c r="C105" t="s">
-        <v>155</v>
+      <c r="C105" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3960,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="H105" t="s">
         <v>9</v>
@@ -3973,8 +3988,8 @@
       <c r="B106" t="s">
         <v>10</v>
       </c>
-      <c r="C106" t="s">
-        <v>155</v>
+      <c r="C106" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -3983,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="H106" t="s">
         <v>9</v>
@@ -3996,8 +4011,8 @@
       <c r="B107" t="s">
         <v>10</v>
       </c>
-      <c r="C107" t="s">
-        <v>158</v>
+      <c r="C107" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -4006,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="H107" t="s">
         <v>9</v>
@@ -4019,8 +4034,8 @@
       <c r="B108" t="s">
         <v>10</v>
       </c>
-      <c r="C108" t="s">
-        <v>158</v>
+      <c r="C108" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -4029,7 +4044,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
@@ -4042,8 +4057,8 @@
       <c r="B109" t="s">
         <v>10</v>
       </c>
-      <c r="C109" t="s">
-        <v>158</v>
+      <c r="C109" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -4052,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="H109" t="s">
         <v>9</v>
@@ -4065,8 +4080,8 @@
       <c r="B110" t="s">
         <v>10</v>
       </c>
-      <c r="C110" t="s">
-        <v>162</v>
+      <c r="C110" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -4075,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
@@ -4089,7 +4104,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -4098,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
@@ -4111,8 +4126,8 @@
       <c r="B112" t="s">
         <v>10</v>
       </c>
-      <c r="C112" t="s">
-        <v>166</v>
+      <c r="C112" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -4121,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="H112" t="s">
         <v>9</v>
@@ -4134,8 +4149,8 @@
       <c r="B113" t="s">
         <v>10</v>
       </c>
-      <c r="C113" t="s">
-        <v>168</v>
+      <c r="C113" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -4144,7 +4159,7 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
@@ -4157,8 +4172,8 @@
       <c r="B114" t="s">
         <v>10</v>
       </c>
-      <c r="C114" t="s">
-        <v>168</v>
+      <c r="C114" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -4167,7 +4182,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="H114" t="s">
         <v>9</v>
@@ -4180,8 +4195,8 @@
       <c r="B115" t="s">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
-        <v>171</v>
+      <c r="C115" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -4190,7 +4205,7 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
@@ -4203,8 +4218,8 @@
       <c r="B116" t="s">
         <v>10</v>
       </c>
-      <c r="C116" t="s">
-        <v>171</v>
+      <c r="C116" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -4213,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="H116" t="s">
         <v>9</v>
@@ -4226,8 +4241,8 @@
       <c r="B117" t="s">
         <v>10</v>
       </c>
-      <c r="C117" t="s">
-        <v>171</v>
+      <c r="C117" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -4236,7 +4251,7 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -4249,8 +4264,8 @@
       <c r="B118" t="s">
         <v>10</v>
       </c>
-      <c r="C118" t="s">
-        <v>171</v>
+      <c r="C118" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -4259,7 +4274,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
@@ -4272,8 +4287,8 @@
       <c r="B119" t="s">
         <v>10</v>
       </c>
-      <c r="C119" t="s">
-        <v>171</v>
+      <c r="C119" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -4282,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="H119" t="s">
         <v>9</v>
@@ -4295,8 +4310,8 @@
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120" t="s">
-        <v>171</v>
+      <c r="C120" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -4305,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="H120" t="s">
         <v>9</v>
@@ -4318,8 +4333,8 @@
       <c r="B121" t="s">
         <v>10</v>
       </c>
-      <c r="C121" t="s">
-        <v>171</v>
+      <c r="C121" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -4328,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -4341,8 +4356,8 @@
       <c r="B122" t="s">
         <v>10</v>
       </c>
-      <c r="C122" t="s">
-        <v>171</v>
+      <c r="C122" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -4351,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -4364,8 +4379,8 @@
       <c r="B123" t="s">
         <v>10</v>
       </c>
-      <c r="C123" t="s">
-        <v>171</v>
+      <c r="C123" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -4374,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -4387,8 +4402,8 @@
       <c r="B124" t="s">
         <v>10</v>
       </c>
-      <c r="C124" t="s">
-        <v>171</v>
+      <c r="C124" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -4397,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -4410,8 +4425,8 @@
       <c r="B125" t="s">
         <v>10</v>
       </c>
-      <c r="C125" t="s">
-        <v>171</v>
+      <c r="C125" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -4420,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -4433,8 +4448,8 @@
       <c r="B126" t="s">
         <v>10</v>
       </c>
-      <c r="C126" t="s">
-        <v>183</v>
+      <c r="C126" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -4443,7 +4458,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -4456,8 +4471,8 @@
       <c r="B127" t="s">
         <v>10</v>
       </c>
-      <c r="C127" t="s">
-        <v>183</v>
+      <c r="C127" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -4466,7 +4481,7 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -4479,8 +4494,8 @@
       <c r="B128" t="s">
         <v>10</v>
       </c>
-      <c r="C128" t="s">
-        <v>183</v>
+      <c r="C128" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -4489,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -4502,8 +4517,8 @@
       <c r="B129" t="s">
         <v>10</v>
       </c>
-      <c r="C129" t="s">
-        <v>183</v>
+      <c r="C129" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -4512,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -4525,8 +4540,8 @@
       <c r="B130" t="s">
         <v>10</v>
       </c>
-      <c r="C130" t="s">
-        <v>188</v>
+      <c r="C130" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -4535,7 +4550,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -4548,8 +4563,8 @@
       <c r="B131" t="s">
         <v>10</v>
       </c>
-      <c r="C131" t="s">
-        <v>190</v>
+      <c r="C131" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -4558,7 +4573,7 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -4571,8 +4586,8 @@
       <c r="B132" t="s">
         <v>10</v>
       </c>
-      <c r="C132" t="s">
-        <v>192</v>
+      <c r="C132" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -4581,7 +4596,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -4594,8 +4609,8 @@
       <c r="B133" t="s">
         <v>10</v>
       </c>
-      <c r="C133" t="s">
-        <v>194</v>
+      <c r="C133" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -4604,7 +4619,7 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -4617,8 +4632,8 @@
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" t="s">
-        <v>194</v>
+      <c r="C134" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -4627,7 +4642,7 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -4640,8 +4655,8 @@
       <c r="B135" t="s">
         <v>10</v>
       </c>
-      <c r="C135" t="s">
-        <v>197</v>
+      <c r="C135" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -4650,7 +4665,7 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -4663,8 +4678,8 @@
       <c r="B136" t="s">
         <v>10</v>
       </c>
-      <c r="C136" t="s">
-        <v>31</v>
+      <c r="C136" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -4673,7 +4688,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -4686,8 +4701,8 @@
       <c r="B137" t="s">
         <v>10</v>
       </c>
-      <c r="C137" t="s">
-        <v>31</v>
+      <c r="C137" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -4696,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -4709,8 +4724,8 @@
       <c r="B138" t="s">
         <v>10</v>
       </c>
-      <c r="C138" t="s">
-        <v>31</v>
+      <c r="C138" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -4719,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -4732,8 +4747,8 @@
       <c r="B139" t="s">
         <v>10</v>
       </c>
-      <c r="C139" t="s">
-        <v>31</v>
+      <c r="C139" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -4742,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -4755,8 +4770,8 @@
       <c r="B140" t="s">
         <v>10</v>
       </c>
-      <c r="C140" t="s">
-        <v>31</v>
+      <c r="C140" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -4765,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -4778,8 +4793,8 @@
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" t="s">
-        <v>31</v>
+      <c r="C141" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -4788,7 +4803,7 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -4801,8 +4816,8 @@
       <c r="B142" t="s">
         <v>10</v>
       </c>
-      <c r="C142" t="s">
-        <v>31</v>
+      <c r="C142" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
@@ -4811,7 +4826,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -4824,8 +4839,8 @@
       <c r="B143" t="s">
         <v>10</v>
       </c>
-      <c r="C143" t="s">
-        <v>206</v>
+      <c r="C143" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -4834,7 +4849,7 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -4847,8 +4862,8 @@
       <c r="B144" t="s">
         <v>10</v>
       </c>
-      <c r="C144" t="s">
-        <v>208</v>
+      <c r="C144" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4857,7 +4872,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -4870,8 +4885,8 @@
       <c r="B145" t="s">
         <v>10</v>
       </c>
-      <c r="C145" t="s">
-        <v>210</v>
+      <c r="C145" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -4880,7 +4895,7 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -4893,8 +4908,8 @@
       <c r="B146" t="s">
         <v>10</v>
       </c>
-      <c r="C146" t="s">
-        <v>212</v>
+      <c r="C146" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4903,7 +4918,7 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -4916,8 +4931,8 @@
       <c r="B147" t="s">
         <v>10</v>
       </c>
-      <c r="C147" t="s">
-        <v>214</v>
+      <c r="C147" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
@@ -4926,7 +4941,7 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -4939,8 +4954,8 @@
       <c r="B148" t="s">
         <v>10</v>
       </c>
-      <c r="C148" t="s">
-        <v>216</v>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -4949,7 +4964,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -4962,8 +4977,8 @@
       <c r="B149" t="s">
         <v>10</v>
       </c>
-      <c r="C149" t="s">
-        <v>218</v>
+      <c r="C149" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -4972,7 +4987,7 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -4985,8 +5000,8 @@
       <c r="B150" t="s">
         <v>10</v>
       </c>
-      <c r="C150" t="s">
-        <v>24</v>
+      <c r="C150" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -4995,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -5008,8 +5023,8 @@
       <c r="B151" t="s">
         <v>10</v>
       </c>
-      <c r="C151" t="s">
-        <v>26</v>
+      <c r="C151" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D151" t="s">
         <v>8</v>
@@ -5018,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -5031,8 +5046,8 @@
       <c r="B152" t="s">
         <v>10</v>
       </c>
-      <c r="C152" t="s">
-        <v>222</v>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -5041,7 +5056,7 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -5054,8 +5069,8 @@
       <c r="B153" t="s">
         <v>10</v>
       </c>
-      <c r="C153" t="s">
-        <v>222</v>
+      <c r="C153" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -5064,7 +5079,7 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -5077,8 +5092,8 @@
       <c r="B154" t="s">
         <v>10</v>
       </c>
-      <c r="C154" t="s">
-        <v>24</v>
+      <c r="C154" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
@@ -5087,7 +5102,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -5100,8 +5115,8 @@
       <c r="B155" t="s">
         <v>10</v>
       </c>
-      <c r="C155" t="s">
-        <v>26</v>
+      <c r="C155" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -5110,7 +5125,7 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -5123,8 +5138,8 @@
       <c r="B156" t="s">
         <v>10</v>
       </c>
-      <c r="C156" t="s">
-        <v>227</v>
+      <c r="C156" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
@@ -5146,8 +5161,8 @@
       <c r="B157" t="s">
         <v>10</v>
       </c>
-      <c r="C157" t="s">
-        <v>227</v>
+      <c r="C157" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D157" t="s">
         <v>8</v>
@@ -5156,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -5169,8 +5184,8 @@
       <c r="B158" t="s">
         <v>10</v>
       </c>
-      <c r="C158" t="s">
-        <v>227</v>
+      <c r="C158" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D158" t="s">
         <v>8</v>
@@ -5179,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -5192,8 +5207,8 @@
       <c r="B159" t="s">
         <v>10</v>
       </c>
-      <c r="C159" t="s">
-        <v>227</v>
+      <c r="C159" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
@@ -5202,7 +5217,7 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -5215,8 +5230,8 @@
       <c r="B160" t="s">
         <v>10</v>
       </c>
-      <c r="C160" t="s">
-        <v>227</v>
+      <c r="C160" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -5225,7 +5240,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -5238,8 +5253,8 @@
       <c r="B161" t="s">
         <v>10</v>
       </c>
-      <c r="C161" t="s">
-        <v>227</v>
+      <c r="C161" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -5248,55 +5263,9 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="H161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" t="s">
-        <v>227</v>
-      </c>
-      <c r="D162" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
-        <v>234</v>
-      </c>
-      <c r="H162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" t="s">
-        <v>235</v>
-      </c>
-      <c r="D163" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" t="s">
-        <v>236</v>
-      </c>
-      <c r="H163" t="s">
         <v>9</v>
       </c>
     </row>
